--- a/AccessibleDashboardData/2021-08-27.xlsx
+++ b/AccessibleDashboardData/2021-08-27.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B426B1-2881-4889-9BD5-3E2C9685098F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269187E5-72F3-47B7-B01C-E3243FA9382F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32790" yWindow="-6375" windowWidth="24000" windowHeight="17895" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -5209,7 +5209,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D258"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -12932,8 +12934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
-      <selection activeCell="E545" sqref="E545"/>
+    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
+      <selection activeCell="C547" sqref="C547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23963,7 +23965,7 @@
         <v>2975003</v>
       </c>
       <c r="C546">
-        <v>12231</v>
+        <v>12229</v>
       </c>
       <c r="D546">
         <v>556040</v>
